--- a/data/trans_bre/P6901-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P6901-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,24; 21,21</t>
+          <t>-20,27; 19,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-24,96; 14,7</t>
+          <t>-25,41; 15,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 29,65</t>
+          <t>-14,1; 29,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 35,07</t>
+          <t>-2,85; 34,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-27,71; 41,45</t>
+          <t>-30,56; 37,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-34,87; 26,58</t>
+          <t>-34,89; 29,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-18,53; 69,26</t>
+          <t>-21,48; 70,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 107,1</t>
+          <t>-5,26; 108,31</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,61; 53,97</t>
+          <t>14,07; 53,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-27,43; 23,04</t>
+          <t>-25,77; 22,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 33,91</t>
+          <t>-3,23; 31,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,93; 21,45</t>
+          <t>-20,27; 19,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,89; 154,39</t>
+          <t>24,25; 153,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,63; 33,49</t>
+          <t>-29,9; 33,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 55,44</t>
+          <t>-3,51; 49,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-30,73; 47,82</t>
+          <t>-31,27; 46,7</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-26,14; 17,22</t>
+          <t>-26,36; 17,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,48; 33,19</t>
+          <t>4,43; 32,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 37,69</t>
+          <t>-13,4; 37,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 28,8</t>
+          <t>-11,28; 29,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-32,63; 22,73</t>
+          <t>-32,37; 22,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,6; 54,25</t>
+          <t>6,55; 54,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,71; 63,25</t>
+          <t>-14,33; 62,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,85; 49,99</t>
+          <t>-14,17; 47,74</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,81; 4,14</t>
+          <t>-21,67; 4,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 17,56</t>
+          <t>-7,55; 16,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,56; 21,03</t>
+          <t>1,77; 21,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 6,07</t>
+          <t>-14,67; 6,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,45; 5,28</t>
+          <t>-25,98; 5,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 24,63</t>
+          <t>-9,46; 22,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,88; 28,14</t>
+          <t>2,12; 28,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,15; 7,63</t>
+          <t>-16,78; 8,14</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 16,05</t>
+          <t>-6,04; 17,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-21,27; 12,25</t>
+          <t>-22,1; 12,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 18,94</t>
+          <t>-4,77; 19,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 16,21</t>
+          <t>-12,61; 16,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 20,89</t>
+          <t>-6,67; 23,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,75; 16,38</t>
+          <t>-24,1; 16,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 25,42</t>
+          <t>-5,09; 27,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 20,51</t>
+          <t>-13,26; 20,95</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 9,74</t>
+          <t>-4,22; 9,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 11,39</t>
+          <t>-4,22; 11,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,19; 17,58</t>
+          <t>2,77; 16,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 12,39</t>
+          <t>-1,34; 14,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 13,48</t>
+          <t>-5,28; 13,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 16,14</t>
+          <t>-5,34; 15,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,99; 24,91</t>
+          <t>3,63; 24,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 17,69</t>
+          <t>-1,59; 20,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6901-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P6901-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
